--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H2">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I2">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J2">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>0.2148238571661111</v>
+        <v>29.82162525153</v>
       </c>
       <c r="R2">
-        <v>1.933414714495</v>
+        <v>268.39462726377</v>
       </c>
       <c r="S2">
-        <v>7.218723051352991E-06</v>
+        <v>0.0009388021878575023</v>
       </c>
       <c r="T2">
-        <v>7.218723051352989E-06</v>
+        <v>0.0009388021878575022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H3">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I3">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J3">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>0.6355232320457778</v>
+        <v>85.67497995432444</v>
       </c>
       <c r="R3">
-        <v>5.719709088412</v>
+        <v>771.07481958892</v>
       </c>
       <c r="S3">
-        <v>2.135547822927241E-05</v>
+        <v>0.002697098429323226</v>
       </c>
       <c r="T3">
-        <v>2.13554782292724E-05</v>
+        <v>0.002697098429323226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H4">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I4">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J4">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>0.05656405680322222</v>
+        <v>8.919199060193334</v>
       </c>
       <c r="R4">
-        <v>0.509076511229</v>
+        <v>80.27279154174001</v>
       </c>
       <c r="S4">
-        <v>1.900721205316266E-06</v>
+        <v>0.0002807815979518582</v>
       </c>
       <c r="T4">
-        <v>1.900721205316266E-06</v>
+        <v>0.0002807815979518582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H5">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I5">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J5">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>0.1334827988278889</v>
+        <v>9.004593204078889</v>
       </c>
       <c r="R5">
-        <v>1.201345189451</v>
+        <v>81.04133883671</v>
       </c>
       <c r="S5">
-        <v>4.485420611887241E-06</v>
+        <v>0.0002834698554976426</v>
       </c>
       <c r="T5">
-        <v>4.48542061188724E-06</v>
+        <v>0.0002834698554976425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H6">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I6">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J6">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>0.01626467411433333</v>
+        <v>2.160167116092222</v>
       </c>
       <c r="R6">
-        <v>0.146382067029</v>
+        <v>19.44150404483</v>
       </c>
       <c r="S6">
-        <v>5.46541615538984E-07</v>
+        <v>6.800332301208714E-05</v>
       </c>
       <c r="T6">
-        <v>5.46541615538984E-07</v>
+        <v>6.800332301208712E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H7">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I7">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J7">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>0.07418835432177777</v>
+        <v>8.127046592155557</v>
       </c>
       <c r="R7">
-        <v>0.6676951888959999</v>
+        <v>73.1434193294</v>
       </c>
       <c r="S7">
-        <v>2.492950226987376E-06</v>
+        <v>0.0002558441753989935</v>
       </c>
       <c r="T7">
-        <v>2.492950226987375E-06</v>
+        <v>0.0002558441753989934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H8">
         <v>1.503156</v>
       </c>
       <c r="I8">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J8">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>25.28096530512667</v>
+        <v>26.03273938347601</v>
       </c>
       <c r="R8">
-        <v>227.52868774614</v>
+        <v>234.294654451284</v>
       </c>
       <c r="S8">
-        <v>0.0008495159216299659</v>
+        <v>0.000819525846864351</v>
       </c>
       <c r="T8">
-        <v>0.0008495159216299658</v>
+        <v>0.000819525846864351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H9">
         <v>1.503156</v>
       </c>
       <c r="I9">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J9">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
-        <v>74.78983475996266</v>
+        <v>74.78983475996267</v>
       </c>
       <c r="R9">
         <v>673.1085128396641</v>
       </c>
       <c r="S9">
-        <v>0.002513161765693274</v>
+        <v>0.002354427698354628</v>
       </c>
       <c r="T9">
-        <v>0.002513161765693274</v>
+        <v>0.002354427698354628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H10">
         <v>1.503156</v>
       </c>
       <c r="I10">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J10">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>6.656588222665333</v>
+        <v>7.786000349912002</v>
       </c>
       <c r="R10">
-        <v>59.909294003988</v>
+        <v>70.07400314920801</v>
       </c>
       <c r="S10">
-        <v>0.000223681240436732</v>
+        <v>0.0002451078404179748</v>
       </c>
       <c r="T10">
-        <v>0.000223681240436732</v>
+        <v>0.0002451078404179748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H11">
         <v>1.503156</v>
       </c>
       <c r="I11">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J11">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>15.70856258944133</v>
+        <v>7.860545029281335</v>
       </c>
       <c r="R11">
-        <v>141.377063304972</v>
+        <v>70.744905263532</v>
       </c>
       <c r="S11">
-        <v>0.0005278546077884583</v>
+        <v>0.0002474545504813868</v>
       </c>
       <c r="T11">
-        <v>0.0005278546077884581</v>
+        <v>0.0002474545504813868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H12">
         <v>1.503156</v>
       </c>
       <c r="I12">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J12">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>1.914064235732</v>
+        <v>1.885714379537333</v>
       </c>
       <c r="R12">
-        <v>17.226578121588</v>
+        <v>16.971429415836</v>
       </c>
       <c r="S12">
-        <v>6.431827359642346E-05</v>
+        <v>5.936339050109868E-05</v>
       </c>
       <c r="T12">
-        <v>6.431827359642346E-05</v>
+        <v>5.936339050109868E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H13">
         <v>1.503156</v>
       </c>
       <c r="I13">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J13">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>8.730656065834665</v>
+        <v>7.094492138053335</v>
       </c>
       <c r="R13">
-        <v>78.57590459251199</v>
+        <v>63.85042924248001</v>
       </c>
       <c r="S13">
-        <v>0.0002933761130037921</v>
+        <v>0.0002233387578566199</v>
       </c>
       <c r="T13">
-        <v>0.0002933761130037921</v>
+        <v>0.0002233387578566199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H14">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I14">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J14">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>1731.849894104904</v>
+        <v>2563.336811853111</v>
       </c>
       <c r="R14">
-        <v>15586.64904694414</v>
+        <v>23070.031306678</v>
       </c>
       <c r="S14">
-        <v>0.05819532763715073</v>
+        <v>0.08069534060890633</v>
       </c>
       <c r="T14">
-        <v>0.05819532763715073</v>
+        <v>0.08069534060890633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H15">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I15">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J15">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>5123.410670671607</v>
+        <v>7364.247525725646</v>
       </c>
       <c r="R15">
-        <v>46110.69603604446</v>
+        <v>66278.2277315308</v>
       </c>
       <c r="S15">
-        <v>0.1721618967176769</v>
+        <v>0.231830815080098</v>
       </c>
       <c r="T15">
-        <v>0.1721618967176769</v>
+        <v>0.231830815080098</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H16">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I16">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J16">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>456.0036165306209</v>
+        <v>766.6554418279488</v>
       </c>
       <c r="R16">
-        <v>4104.032548775588</v>
+        <v>6899.898976451538</v>
       </c>
       <c r="S16">
-        <v>0.01532308311364406</v>
+        <v>0.02413476126972698</v>
       </c>
       <c r="T16">
-        <v>0.01532308311364407</v>
+        <v>0.02413476126972697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H17">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I17">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J17">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>1076.101016267263</v>
+        <v>773.9955499103309</v>
       </c>
       <c r="R17">
-        <v>9684.909146405371</v>
+        <v>6965.959949192978</v>
       </c>
       <c r="S17">
-        <v>0.03616020731676119</v>
+        <v>0.02436583216102581</v>
       </c>
       <c r="T17">
-        <v>0.03616020731676119</v>
+        <v>0.02436583216102581</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H18">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I18">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J18">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>131.1212568014653</v>
+        <v>185.6785417203134</v>
       </c>
       <c r="R18">
-        <v>1180.091311213188</v>
+        <v>1671.106875482821</v>
       </c>
       <c r="S18">
-        <v>0.004406065748382947</v>
+        <v>0.00584526898634666</v>
       </c>
       <c r="T18">
-        <v>0.004406065748382947</v>
+        <v>0.00584526898634666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H19">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I19">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J19">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>598.085777207879</v>
+        <v>698.5654713855312</v>
       </c>
       <c r="R19">
-        <v>5382.771994870911</v>
+        <v>6287.08924246978</v>
       </c>
       <c r="S19">
-        <v>0.02009746796082556</v>
+        <v>0.02199124921485617</v>
       </c>
       <c r="T19">
-        <v>0.02009746796082556</v>
+        <v>0.02199124921485617</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H20">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I20">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J20">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>2170.25188664438</v>
+        <v>2968.730679344472</v>
       </c>
       <c r="R20">
-        <v>19532.26697979942</v>
+        <v>26718.57611410025</v>
       </c>
       <c r="S20">
-        <v>0.07292694362734642</v>
+        <v>0.09345737643139651</v>
       </c>
       <c r="T20">
-        <v>0.07292694362734641</v>
+        <v>0.09345737643139651</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H21">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I21">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J21">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>6420.355315970288</v>
+        <v>8528.909450687177</v>
       </c>
       <c r="R21">
-        <v>57783.1978437326</v>
+        <v>76760.18505618461</v>
       </c>
       <c r="S21">
-        <v>0.2157431093951269</v>
+        <v>0.2684950529962431</v>
       </c>
       <c r="T21">
-        <v>0.2157431093951269</v>
+        <v>0.2684950529962431</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H22">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I22">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J22">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>571.4367696997961</v>
+        <v>887.902643194064</v>
       </c>
       <c r="R22">
-        <v>5142.930927298165</v>
+        <v>7991.123788746576</v>
       </c>
       <c r="S22">
-        <v>0.019201981736288</v>
+        <v>0.02795169401413762</v>
       </c>
       <c r="T22">
-        <v>0.019201981736288</v>
+        <v>0.02795169401413762</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H23">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I23">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J23">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>1348.506165992524</v>
+        <v>896.4035955281893</v>
       </c>
       <c r="R23">
-        <v>12136.55549393272</v>
+        <v>8067.632359753704</v>
       </c>
       <c r="S23">
-        <v>0.04531383373223181</v>
+        <v>0.02821930896076899</v>
       </c>
       <c r="T23">
-        <v>0.0453138337322318</v>
+        <v>0.02821930896076899</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H24">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I24">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J24">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>164.313406098996</v>
+        <v>215.0437588818213</v>
       </c>
       <c r="R24">
-        <v>1478.820654890964</v>
+        <v>1935.393829936392</v>
       </c>
       <c r="S24">
-        <v>0.005521421074457191</v>
+        <v>0.006769703180848513</v>
       </c>
       <c r="T24">
-        <v>0.005521421074457192</v>
+        <v>0.006769703180848513</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H25">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I25">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J25">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N25">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O25">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P25">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q25">
-        <v>749.4857324407039</v>
+        <v>809.0441867971733</v>
       </c>
       <c r="R25">
-        <v>6745.371591966335</v>
+        <v>7281.397681174561</v>
       </c>
       <c r="S25">
-        <v>0.02518495852742457</v>
+        <v>0.02546918372933454</v>
       </c>
       <c r="T25">
-        <v>0.02518495852742457</v>
+        <v>0.02546918372933454</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H26">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I26">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J26">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N26">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q26">
-        <v>1725.68638522401</v>
+        <v>1003.949959453539</v>
       </c>
       <c r="R26">
-        <v>15531.17746701609</v>
+        <v>9035.549635081852</v>
       </c>
       <c r="S26">
-        <v>0.05798821533490152</v>
+        <v>0.03160493133706981</v>
       </c>
       <c r="T26">
-        <v>0.05798821533490152</v>
+        <v>0.03160493133706981</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H27">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I27">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J27">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>447.796844</v>
       </c>
       <c r="O27">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P27">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q27">
-        <v>5105.176880735976</v>
+        <v>2884.262407761089</v>
       </c>
       <c r="R27">
-        <v>45946.59192662379</v>
+        <v>25958.3616698498</v>
       </c>
       <c r="S27">
-        <v>0.1715491869308859</v>
+        <v>0.09079826588667682</v>
       </c>
       <c r="T27">
-        <v>0.171549186930886</v>
+        <v>0.09079826588667682</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H28">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I28">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J28">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N28">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O28">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P28">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q28">
-        <v>454.380737810142</v>
+        <v>300.2663154443514</v>
       </c>
       <c r="R28">
-        <v>4089.426640291279</v>
+        <v>2702.396838999162</v>
       </c>
       <c r="S28">
-        <v>0.01526854954282184</v>
+        <v>0.009452559057444581</v>
       </c>
       <c r="T28">
-        <v>0.01526854954282185</v>
+        <v>0.00945255905744458</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H29">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I29">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J29">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N29">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q29">
-        <v>1072.271262780498</v>
+        <v>303.1411234592859</v>
       </c>
       <c r="R29">
-        <v>9650.441365024482</v>
+        <v>2728.270111133573</v>
       </c>
       <c r="S29">
-        <v>0.03603151616420203</v>
+        <v>0.009543059693520824</v>
       </c>
       <c r="T29">
-        <v>0.03603151616420203</v>
+        <v>0.009543059693520824</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H30">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I30">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J30">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N30">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q30">
-        <v>130.654607218542</v>
+        <v>72.72238418670321</v>
       </c>
       <c r="R30">
-        <v>1175.891464966878</v>
+        <v>654.5014576803289</v>
       </c>
       <c r="S30">
-        <v>0.00439038492901032</v>
+        <v>0.002289343146285701</v>
       </c>
       <c r="T30">
-        <v>0.004390384929010321</v>
+        <v>0.002289343146285701</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H31">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I31">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J31">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N31">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O31">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P31">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q31">
-        <v>595.957239964608</v>
+        <v>273.5983712441356</v>
       </c>
       <c r="R31">
-        <v>5363.615159681473</v>
+        <v>2462.38534119722</v>
       </c>
       <c r="S31">
-        <v>0.02002594275377287</v>
+        <v>0.008613036591795601</v>
       </c>
       <c r="T31">
-        <v>0.02002594275377287</v>
+        <v>0.008613036591795601</v>
       </c>
     </row>
   </sheetData>
